--- a/Data_all/Data_4_all.xlsx
+++ b/Data_all/Data_4_all.xlsx
@@ -185,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,11 +230,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -536,43 +537,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D18" sqref="D18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -948,23 +949,123 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>AVERAGE(B3:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7" si="2">AVERAGE(C3:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7" si="3">AVERAGE(D3:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7" si="4">AVERAGE(E3:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7" si="5">AVERAGE(F3:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7" si="6">AVERAGE(G3:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7" si="7">AVERAGE(H3:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7" si="8">AVERAGE(I3:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" ref="J7" si="9">AVERAGE(J3:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K7" si="10">AVERAGE(K3:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7" si="11">AVERAGE(L3:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4">
+        <f>AVERAGE(O3:O6)</f>
+        <v>0.85666666666666658</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7:Y7" si="12">AVERAGE(P3:P6)</f>
+        <v>0.81166666666666665</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.74</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.755</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.85166666666666657</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.81666666666666654</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.91166666666666663</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.88166666666666671</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.79616666666666658</v>
+      </c>
+    </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <f>AVERAGE(L3:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <f>AVERAGE(Y3:Y6)</f>
-        <v>0.79616666666666658</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data_all/Data_4_all.xlsx
+++ b/Data_all/Data_4_all.xlsx
@@ -232,10 +232,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -248,6 +248,339 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="185414784"/>
+        <c:axId val="185416320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="185414784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185416320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185416320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185414784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89133333333333342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73399999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69133333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="185460992"/>
+        <c:axId val="186056704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="185460992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186056704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186056704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185460992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75141</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,40 +873,40 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:M18"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1054,18 +1387,18 @@
       <c r="N9" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1075,6 +1408,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_4_all.xlsx
+++ b/Data_all/Data_4_all.xlsx
@@ -277,8 +277,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -332,11 +374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185414784"/>
-        <c:axId val="185416320"/>
+        <c:axId val="161453184"/>
+        <c:axId val="161454720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185414784"/>
+        <c:axId val="161453184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185416320"/>
+        <c:crossAx val="161454720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,10 +396,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185416320"/>
+        <c:axId val="161454720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -367,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185414784"/>
+        <c:crossAx val="161453184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -411,8 +453,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10053412908615054</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6945704641205032E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9841836332276367E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11418503501870213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.10053412908615054</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6945704641205032E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.9841836332276367E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11418503501870213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -466,11 +550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185460992"/>
-        <c:axId val="186056704"/>
+        <c:axId val="162281728"/>
+        <c:axId val="162291712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185460992"/>
+        <c:axId val="162281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186056704"/>
+        <c:crossAx val="162291712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -488,10 +572,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186056704"/>
+        <c:axId val="162291712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -501,7 +585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185460992"/>
+        <c:crossAx val="162281728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,15 +954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -908,7 +992,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -978,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1014,6 +1098,10 @@
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(B3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
@@ -1053,8 +1141,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>0.89133333333333342</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.10053412908615054</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1092,6 +1184,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M6" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1126,11 +1222,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>0.73399999999999987</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z6" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>8.6945704641205032E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1168,6 +1268,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1202,11 +1306,15 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69133333333333336</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>8.9841836332276367E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1244,6 +1352,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1278,11 +1390,15 @@
         <v>0.94666666666666666</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86799999999999999</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.11418503501870213</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1291,43 +1407,43 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7" si="2">AVERAGE(C3:C6)</f>
+        <f t="shared" ref="C7" si="4">AVERAGE(C3:C6)</f>
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7" si="3">AVERAGE(D3:D6)</f>
+        <f t="shared" ref="D7" si="5">AVERAGE(D3:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7" si="4">AVERAGE(E3:E6)</f>
+        <f t="shared" ref="E7" si="6">AVERAGE(E3:E6)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7" si="5">AVERAGE(F3:F6)</f>
+        <f t="shared" ref="F7" si="7">AVERAGE(F3:F6)</f>
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7" si="6">AVERAGE(G3:G6)</f>
+        <f t="shared" ref="G7" si="8">AVERAGE(G3:G6)</f>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7" si="7">AVERAGE(H3:H6)</f>
+        <f t="shared" ref="H7" si="9">AVERAGE(H3:H6)</f>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" ref="I7" si="8">AVERAGE(I3:I6)</f>
+        <f t="shared" ref="I7" si="10">AVERAGE(I3:I6)</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7" si="9">AVERAGE(J3:J6)</f>
+        <f t="shared" ref="J7" si="11">AVERAGE(J3:J6)</f>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" ref="K7" si="10">AVERAGE(K3:K6)</f>
+        <f t="shared" ref="K7" si="12">AVERAGE(K3:K6)</f>
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7" si="11">AVERAGE(L3:L6)</f>
+        <f t="shared" ref="L7" si="13">AVERAGE(L3:L6)</f>
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1338,51 +1454,51 @@
         <v>0.85666666666666658</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" ref="P7:Y7" si="12">AVERAGE(P3:P6)</f>
+        <f t="shared" ref="P7:Y7" si="14">AVERAGE(P3:P6)</f>
         <v>0.81166666666666665</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.68333333333333335</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.65333333333333332</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.74</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.755</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.85166666666666657</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.81666666666666654</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91166666666666663</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.88166666666666671</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.79616666666666658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="N9" s="7"/>
     </row>
